--- a/doc/A380产品型号&软件描述.xlsx
+++ b/doc/A380产品型号&软件描述.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>适用产品型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,14 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A3_6009A_2.8.HEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A3_N609A_2.7.HEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    A380_LoRa手持机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,6 +37,58 @@
   </si>
   <si>
     <t>用于N609A抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    A380_LoRa手持机英文版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    A380_FSK手持机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    A380_FSK手持机英文版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于6009A抄表_英文版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于8009抄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于8009抄表_英文版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A380手持机产品型号及软件描述：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于8009抄表(和龙定制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于6009A抄表(和龙定制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于8009抄表(濮阳定制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3_6009A_1.0.HEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -57,7 +101,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A3_6009A_EN_2.8.H</t>
+      <t>A3_6009A_EN_1.0.H</t>
     </r>
     <r>
       <rPr>
@@ -72,36 +116,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    A380_LoRa手持机英文版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    A380_FSK手持机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    A380_FSK手持机英文版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于6009A抄表_英文版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于8009抄表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于8009抄表_英文版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A380手持机产品型号及软件描述：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">软件全名 
+    <r>
+      <t xml:space="preserve">软件全名示例 
 </t>
     </r>
     <r>
@@ -129,7 +145,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A3_8009_1.1.HEX</t>
+    <t>A3_N609A_1.0.HEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3_8009_1.0.HEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -142,7 +162,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A3_8009_EN_1.1.H</t>
+      <t>A3_8009_EN_1.0.H</t>
     </r>
     <r>
       <rPr>
@@ -156,12 +176,88 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>v1.0 2019-05-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.5 2019-10-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1 2020-03-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0 2020-01-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1 2020-01-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.8 2020-01-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.8 2020-03-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A3_6009HL_1.0.HE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A3_8009HL_1.0.HE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A3_8009PY_1.0.HE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +295,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +313,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -263,6 +378,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D15"/>
+  <dimension ref="B3:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -579,16 +701,17 @@
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="26.375" customWidth="1"/>
+    <col min="5" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -596,86 +719,185 @@
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/A380产品型号&软件描述.xlsx
+++ b/doc/A380产品型号&软件描述.xlsx
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用于6009A抄表(和龙定制)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于8009抄表(濮阳定制)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +246,10 @@
       </rPr>
       <t>X</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于6009抄表(和龙定制)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +693,7 @@
   <dimension ref="B3:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -711,7 +711,7 @@
     </row>
     <row r="5" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -720,15 +720,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>2</v>
@@ -737,15 +737,15 @@
         <v>3</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -769,7 +769,7 @@
     </row>
     <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
@@ -778,10 +778,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -793,7 +793,7 @@
     </row>
     <row r="11" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
@@ -802,15 +802,15 @@
         <v>10</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>8</v>
@@ -819,10 +819,10 @@
         <v>11</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -834,20 +834,20 @@
     </row>
     <row r="14" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
@@ -867,13 +867,13 @@
     </row>
     <row r="17" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>

--- a/doc/A380产品型号&软件描述.xlsx
+++ b/doc/A380产品型号&软件描述.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>适用产品型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,31 +24,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    A380_LoRa手持机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于6009A抄表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    A380_红外手持机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于N609A抄表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    A380_LoRa手持机英文版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    A380_FSK手持机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    A380_FSK手持机英文版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -250,6 +230,115 @@
   </si>
   <si>
     <t>用于6009抄表(和龙定制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A3_8009TN_1.0.HE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于8009抄表(洮南定制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A3_6009TN_1.0.HE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于6009抄表(洮南定制)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3_N609D_1.0.HEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3_N609DB_1.0.HEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3_N609DH_1.0.HEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3_N609HX_1.0.HEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A380_LoRa手持机英文版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A380_LoRa手持机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A380_FSK手持机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A380_FSK手持机英文版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A380_红外手持机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A380_红外手持机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征：
+表号位数-波特率-校验位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-9600-偶校验</t>
+  </si>
+  <si>
+    <t>16-9600-偶校验</t>
+  </si>
+  <si>
+    <t>14-9600-偶校验</t>
+  </si>
+  <si>
+    <t>10-9600-偶校验</t>
+  </si>
+  <si>
+    <t>14-9600-无校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-9600-偶校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16-2400-无校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,28 +779,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F20"/>
+  <dimension ref="B3:G25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="26.375" customWidth="1"/>
-    <col min="5" max="6" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -719,185 +809,307 @@
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>23</v>
+      <c r="E6" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
+    </row>
+    <row r="8" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="6" t="s">
-        <v>22</v>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
